--- a/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200606.xlsx
+++ b/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200606.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\lab\疫情可视化\每日数据更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AE7069-04C9-4B60-84DB-D99F7B971430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3662AC8-7940-48F1-966F-33DDAAF95BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -12084,8 +12084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -12274,10 +12274,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="18">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D2" s="18">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>47</v>
@@ -12345,10 +12345,10 @@
         <v>53</v>
       </c>
       <c r="C3" s="18">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D3" s="18">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>47</v>
@@ -12399,10 +12399,10 @@
         <v>53</v>
       </c>
       <c r="C4" s="18">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D4" s="18">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>47</v>
@@ -12452,10 +12452,10 @@
         <v>53</v>
       </c>
       <c r="C5" s="18">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D5" s="18">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>47</v>
@@ -12505,10 +12505,10 @@
         <v>53</v>
       </c>
       <c r="C6" s="18">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D6" s="18">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>47</v>
